--- a/Mathieusche Differentialgleichung/Programme/dataFolder/Peters_Mathieu_ODE_w_0p7.xlsx
+++ b/Mathieusche Differentialgleichung/Programme/dataFolder/Peters_Mathieu_ODE_w_0p7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="10">
   <si>
     <t>Epsilon</t>
   </si>
